--- a/Team-Data/2013-14/1-31-2013-14.xlsx
+++ b/Team-Data/2013-14/1-31-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.533</v>
+        <v>0.523</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q2" t="n">
         <v>0.783</v>
@@ -711,40 +778,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -759,22 +826,22 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -789,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -801,13 +868,13 @@
         <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -819,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -938,10 +1005,10 @@
         <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -962,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -980,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.455</v>
+        <v>0.465</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,73 +1115,73 @@
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M4" t="n">
         <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="T4" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="U4" t="n">
         <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
         <v>4.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z4" t="n">
         <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
         <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1123,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1132,16 +1199,16 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
@@ -1153,10 +1220,10 @@
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
         <v>18</v>
@@ -1165,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1177,13 +1244,13 @@
         <v>24</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O5" t="n">
         <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
         <v>0.73</v>
@@ -1257,13 +1324,13 @@
         <v>9.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T5" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
         <v>12.9</v>
@@ -1275,22 +1342,22 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1305,10 +1372,10 @@
         <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>10</v>
@@ -1332,16 +1399,16 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
@@ -1359,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
@@ -1490,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1502,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1511,13 +1578,13 @@
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1529,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1720,16 +1787,16 @@
         <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
       </c>
       <c r="BB7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,49 +1843,49 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="Q8" t="n">
         <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T8" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="W8" t="n">
         <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
         <v>3.4</v>
@@ -1827,16 +1894,16 @@
         <v>20.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1860,37 +1927,37 @@
         <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
         <v>27</v>
       </c>
       <c r="AT8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1958,7 +2025,7 @@
         <v>38.3</v>
       </c>
       <c r="J9" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
         <v>0.451</v>
@@ -1967,19 +2034,19 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
         <v>12</v>
@@ -1988,13 +2055,13 @@
         <v>33.5</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
@@ -2006,25 +2073,25 @@
         <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
         <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.6</v>
+        <v>103.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
@@ -2033,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -2051,31 +2118,31 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2087,7 +2154,7 @@
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2212,10 +2279,10 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2269,13 +2336,13 @@
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -2304,34 +2371,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J11" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L11" t="n">
         <v>9.4</v>
       </c>
       <c r="M11" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.383</v>
@@ -2343,22 +2410,22 @@
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="T11" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W11" t="n">
         <v>7.8</v>
@@ -2367,7 +2434,7 @@
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z11" t="n">
         <v>22.2</v>
@@ -2376,13 +2443,13 @@
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC11" t="n">
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2397,13 +2464,13 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2439,10 +2506,10 @@
         <v>29</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2782,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2794,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2952,16 +3019,16 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -3032,49 +3099,49 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
         <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
         <v>32.9</v>
@@ -3086,19 +3153,19 @@
         <v>22.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
         <v>19.3</v>
@@ -3107,7 +3174,7 @@
         <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
         <v>9</v>
@@ -3116,22 +3183,22 @@
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -3149,13 +3216,13 @@
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3164,13 +3231,13 @@
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.556</v>
+        <v>0.545</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3238,13 +3305,13 @@
         <v>0.456</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
         <v>14.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
         <v>15.4</v>
@@ -3253,16 +3320,16 @@
         <v>20.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
@@ -3271,7 +3338,7 @@
         <v>13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
         <v>4.5</v>
@@ -3280,19 +3347,19 @@
         <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3310,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
@@ -3334,16 +3401,16 @@
         <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3364,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>6</v>
@@ -3486,10 +3553,10 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.174</v>
+        <v>0.178</v>
       </c>
       <c r="H18" t="n">
         <v>48.8</v>
       </c>
       <c r="I18" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
         <v>20.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
         <v>14.9</v>
@@ -3617,7 +3684,7 @@
         <v>19.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.751</v>
+        <v>0.756</v>
       </c>
       <c r="R18" t="n">
         <v>11.4</v>
@@ -3647,16 +3714,16 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="AC18" t="n">
         <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,34 +3735,34 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>14</v>
@@ -3713,10 +3780,10 @@
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,10 +3845,10 @@
         <v>38.7</v>
       </c>
       <c r="J19" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>7.7</v>
@@ -3790,34 +3857,34 @@
         <v>22.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O19" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="P19" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S19" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T19" t="n">
         <v>45.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
         <v>3.4</v>
@@ -3826,31 +3893,31 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.8</v>
+        <v>106.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
         <v>14</v>
       </c>
-      <c r="AF19" t="n">
-        <v>15</v>
-      </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
@@ -3862,16 +3929,16 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3880,22 +3947,22 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
       </c>
       <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW19" t="n">
         <v>3</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4038,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
         <v>12</v>
@@ -4056,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4065,7 +4132,7 @@
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>18</v>
@@ -4074,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4238,10 +4305,10 @@
         <v>28</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,22 +4320,22 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.792</v>
+        <v>0.787</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.476</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
         <v>11.2</v>
@@ -4354,37 +4421,37 @@
         <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA22" t="n">
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.9</v>
+        <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,10 +4466,10 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4432,13 +4499,13 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>10</v>
@@ -4456,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -4488,58 +4555,58 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.271</v>
+        <v>0.255</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O23" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P23" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R23" t="n">
         <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>15.1</v>
@@ -4554,19 +4621,19 @@
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,34 +4648,34 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM23" t="n">
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP23" t="n">
         <v>21</v>
       </c>
-      <c r="AP23" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4617,7 +4684,7 @@
         <v>22</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>17</v>
@@ -4626,13 +4693,13 @@
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4641,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.319</v>
+        <v>0.326</v>
       </c>
       <c r="H24" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I24" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J24" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L24" t="n">
         <v>6.9</v>
@@ -4700,22 +4767,22 @@
         <v>21.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O24" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="R24" t="n">
         <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T24" t="n">
         <v>44.7</v>
@@ -4724,28 +4791,28 @@
         <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="W24" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
         <v>4.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA24" t="n">
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>9</v>
@@ -4766,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>23</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4796,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>3.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4942,7 +5009,7 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>8</v>
@@ -4969,13 +5036,13 @@
         <v>11</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5139,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
@@ -5154,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
@@ -5252,19 +5319,19 @@
         <v>19.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
         <v>31.6</v>
       </c>
       <c r="T27" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
@@ -5279,34 +5346,34 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
         <v>23.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB27" t="n">
         <v>101.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -5333,13 +5400,13 @@
         <v>6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>7</v>
       </c>
       <c r="AS27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5348,10 +5415,10 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
@@ -5533,10 +5600,10 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
         <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.543</v>
+        <v>0.533</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I29" t="n">
         <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
         <v>0.438</v>
@@ -5607,19 +5674,19 @@
         <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>12</v>
@@ -5631,10 +5698,10 @@
         <v>43.6</v>
       </c>
       <c r="U29" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V29" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5643,22 +5710,22 @@
         <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB29" t="n">
         <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,28 +5737,28 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
@@ -5709,22 +5776,22 @@
         <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -5762,34 +5829,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J30" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="N30" t="n">
         <v>0.356</v>
@@ -5801,13 +5868,13 @@
         <v>21.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
         <v>41.6</v>
@@ -5816,13 +5883,13 @@
         <v>20.2</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
@@ -5834,13 +5901,13 @@
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="AC30" t="n">
         <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5852,7 +5919,7 @@
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5879,10 +5946,10 @@
         <v>22</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5894,19 +5961,19 @@
         <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6040,19 +6107,19 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6070,7 +6137,7 @@
         <v>15</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-31-2013-14</t>
+          <t>2014-01-31</t>
         </is>
       </c>
     </row>
